--- a/data/output/FV2410_FV2404/MSCONS/13016.xlsx
+++ b/data/output/FV2410_FV2404/MSCONS/13016.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="353">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="353">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -1208,6 +1208,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U163" totalsRowShown="0">
+  <autoFilter ref="A1:U163"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1497,7 +1527,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9613,5 +9646,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/MSCONS/13016.xlsx
+++ b/data/output/FV2410_FV2404/MSCONS/13016.xlsx
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N27" s="2"/>
@@ -3598,7 +3598,7 @@
         <v>334</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N62" s="2"/>
@@ -5292,7 +5292,7 @@
         <v>338</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5638,7 +5638,7 @@
         <v>340</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6432,7 +6432,7 @@
         <v>346</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6656,7 +6656,7 @@
         <v>346</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6880,7 +6880,7 @@
         <v>348</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -7100,7 +7100,7 @@
         <v>349</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7536,7 +7536,7 @@
         <v>350</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7922,7 +7922,7 @@
         <v>352</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -9114,7 +9114,7 @@
         <v>350</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N158" s="2"/>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N161" s="2"/>
